--- a/LearningWithExpertKnowledge/data/data.xlsx
+++ b/LearningWithExpertKnowledge/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\python_project\Bayesian network learning\learning with expert's knowledge\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\python_project\Bayesian network learning\LearningWithExpertKnowledge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -573,6 +573,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
